--- a/data/LCA Collection.xlsx
+++ b/data/LCA Collection.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="56">
   <si>
     <t xml:space="preserve">Impact method sets</t>
   </si>
@@ -362,19 +362,73 @@
     <t xml:space="preserve">Packaging Material</t>
   </si>
   <si>
+    <t xml:space="preserve">Currogated Box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79 · 10 -7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carton Board Manufacturing and Supply Chain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73 · 10 -6 </t>
+  </si>
+  <si>
     <t xml:space="preserve">Filling Material</t>
   </si>
   <si>
+    <t xml:space="preserve">Kraft Paper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28 · 10 -6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plastic shrink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06 · 10 -7</t>
+  </si>
+  <si>
     <t xml:space="preserve">Shipment</t>
   </si>
   <si>
+    <t xml:space="preserve">3.5t lorry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39 · 10 -5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">todo: multiply by weight in tonnes and kilometres</t>
+  </si>
+  <si>
     <t xml:space="preserve">Receipt</t>
   </si>
   <si>
+    <t xml:space="preserve">laser printer b/w incl electricity, ink, paper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03 · 10 -3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">todo: factor in paper weight</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rerouting</t>
   </si>
   <si>
+    <t xml:space="preserve">Bicycle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.5 · 10 -5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">todo: multiply by kilometres</t>
+  </si>
+  <si>
     <t xml:space="preserve">Return Shipment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delivery </t>
   </si>
 </sst>
 </file>
@@ -466,7 +520,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -477,6 +531,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -664,16 +722,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B34" activeCellId="0" sqref="B34"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -725,14 +784,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="2"/>
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="K11" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="2"/>
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="K12" s="1" t="s">
         <v>15</v>
       </c>
@@ -744,41 +813,138 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="3"/>
+    </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="2"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="2"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>36</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>37</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="3"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/data/LCA Collection.xlsx
+++ b/data/LCA Collection.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Supply Chain Process" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Logistics Example" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Invoice Example" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="69">
   <si>
     <t xml:space="preserve">Impact method sets</t>
   </si>
@@ -429,6 +430,45 @@
   </si>
   <si>
     <t xml:space="preserve">Delivery </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invoice Entry Form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mail to Data Entry Staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Master Request Form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mail to Master Data Entry Unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mail to Validation Office</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mail to Registry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payment Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mail to Account Receivable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Posting Payment Report to Client</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monthly Invoice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mail Payment Report to Registry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Archival</t>
   </si>
 </sst>
 </file>
@@ -724,7 +764,7 @@
   </sheetPr>
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -956,4 +996,198 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A2:K51"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.57"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K3" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K5" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K7" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K9" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="K11" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="3"/>
+      <c r="K12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="3"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/data/LCA Collection.xlsx
+++ b/data/LCA Collection.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="88">
   <si>
     <t xml:space="preserve">Impact method sets</t>
   </si>
@@ -30,18 +30,30 @@
     <t xml:space="preserve">OpenLCA LCIA methods v2.0.4</t>
   </si>
   <si>
+    <t xml:space="preserve">scenario a: switch from v1 to v2 (cost driver)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Impact assessment method</t>
   </si>
   <si>
+    <t xml:space="preserve">scenario b: change frequency of v1 vs v2 70vs30 to 30vs70 (behaviour)</t>
+  </si>
+  <si>
     <t xml:space="preserve">EF Method (adapted)</t>
   </si>
   <si>
     <t xml:space="preserve">Normalizations and weighting</t>
   </si>
   <si>
+    <t xml:space="preserve">Variant 1: shipping with plane and diesel lorry, dirty intermediate and final production</t>
+  </si>
+  <si>
     <t xml:space="preserve">Global (2010)/with tox categories</t>
   </si>
   <si>
+    <t xml:space="preserve">Variant 2: shipping with ship and electric train, clean intermediate and final production </t>
+  </si>
+  <si>
     <t xml:space="preserve">Impact category</t>
   </si>
   <si>
@@ -54,7 +66,46 @@
     <t xml:space="preserve">Single score</t>
   </si>
   <si>
-    <t xml:space="preserve">variant 1 - bangladesh - rotterdam ship</t>
+    <t xml:space="preserve">Variant 1 - bangladesh - rotterdam plane</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1.27 · 10 </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Pt</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Exclude long-term impacts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variant 2 - bangladesh - rotterdam ship</t>
   </si>
   <si>
     <r>
@@ -90,282 +141,276 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intermediate Product - Cotton Fabric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">variant 1 - normal energy mix bangladesh, poorer waste water</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1.08 · 10 </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Pt</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">variant 2 - hydroelectric, less waste water</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">9.5 · 10 </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Pt</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Product - T-Shirt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variant 1 - production with bad energy and waste </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2.2 · 10 </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Pt</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Variant 2 - production with green energy and waste</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-2.56 · 10 </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Pt</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Destination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variant 1 - rotterdam - amsteradam lorry diesel</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2.17 · 10 </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Pt</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Variant 2 - rotterdam - amsterdam electric train</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-2.57 · 10 </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Pt</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">scenario a: variant 1, reduce rerouting probability (30 to 5 percent) but only lorry delivery (behaviour)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scenario b: variant 1 to variant 2 bike delivery to lorry delivery (cost driver)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scenario c:  variant 3 to 4, increase return probability (10percent to 25)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variant 1: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">currogated box with kraft paper, lorry delivery and rerouting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variant 2: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">currogated box with kraft paper, bike delivery and rerouting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variant 3:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carton board and kraft paper, bike delivery and rerouting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variant 4:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">currogated box, kraft paper, bike delivery and rerouting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Packaging Material</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Currogated Box</t>
+  </si>
+  <si>
     <t xml:space="preserve">Yes</t>
   </si>
   <si>
-    <t xml:space="preserve">variant 2 - bangladesh - rotterdam plane</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1.27 · 10 </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Pt</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Exclude long-term impacts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intermediate Product - Cotton Fabric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">variant 1 - normal energy mix bangladesh, poorer waste water</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1.08 · 10 </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Pt</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">variant 2 - hydroelectric, less waste water</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">9.5 · 10 </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Pt</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Product - T-Shirt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">variant 1 - production with green energy and waste</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-2.56 · 10 </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Pt</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">variant 2 - production with bad energy and waste </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2.2 · 10 </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Pt</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Destination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">variant 1 - rotterdam - amsterdam electric train</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-2.57 · 10 </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Pt</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">variant 2 - rotterdam - amsteradam lorry diesel</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2.17 · 10 </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Pt</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Packaging Material</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Currogated Box</t>
-  </si>
-  <si>
     <t xml:space="preserve">Carton Board Manufacturing and Supply Chain</t>
   </si>
   <si>
@@ -411,12 +456,36 @@
     <t xml:space="preserve">Bicycle 10km</t>
   </si>
   <si>
+    <t xml:space="preserve">Scenario 1:  standard procedure, but reduce invoice return probability (20 percent to 5) (behaviour)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scenario 2: variant 1 → variant 2 (cost driver)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scenario 3: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variant 1: standard procedure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variant 2: cheaper in and out-house mailing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variant 3: standard, but cheaper printing and archival</t>
+  </si>
+  <si>
     <t xml:space="preserve">Invoice Entry Form</t>
   </si>
   <si>
+    <t xml:space="preserve">cheaper printing</t>
+  </si>
+  <si>
     <t xml:space="preserve">Variant 1</t>
   </si>
   <si>
+    <t xml:space="preserve">Variant 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mail to Data Entry Staff</t>
   </si>
   <si>
@@ -454,6 +523,9 @@
   </si>
   <si>
     <t xml:space="preserve">Archival</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variant 3</t>
   </si>
 </sst>
 </file>
@@ -588,13 +660,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:K26"/>
+  <dimension ref="A2:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B20 A1"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="57.15"/>
@@ -613,133 +685,145 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>2</v>
+      </c>
       <c r="K4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>4</v>
+      </c>
       <c r="K5" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K6" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="K7" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="K8" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K9" s="0" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K13" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>17</v>
+      <c r="A13" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="0" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
+      <c r="C21" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -756,102 +840,137 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:K36"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C25" activeCellId="1" sqref="B20 C25"/>
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.57"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>36</v>
+      </c>
       <c r="K2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>37</v>
+      </c>
       <c r="K3" s="0" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>39</v>
+      </c>
       <c r="K5" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>41</v>
+      </c>
       <c r="K6" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>43</v>
+      </c>
       <c r="K7" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>45</v>
+      </c>
       <c r="K8" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K9" s="0" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="3" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C11" s="4" t="n">
         <v>7.79E-007</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C12" s="4" t="n">
         <v>2.73E-006</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K13" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C15" s="4" t="n">
         <v>2.28E-006</v>
@@ -859,7 +978,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="3" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C16" s="4" t="n">
         <v>1.06E-007</v>
@@ -867,12 +986,12 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C20" s="5" t="n">
         <v>5.33E-005</v>
@@ -883,12 +1002,12 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C25" s="4" t="n">
         <f aca="false">0.00203 * 0.003</f>
@@ -900,20 +1019,20 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="4" t="n">
-        <v>5.39E-005</v>
+        <v>58</v>
+      </c>
+      <c r="C28" s="3" t="n">
+        <v>1.39E-005</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C29" s="0" t="n">
         <f aca="false">0.00000149882099813546 * 5</f>
@@ -922,12 +1041,12 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C31" s="5" t="n">
         <v>5.33E-005</v>
@@ -938,21 +1057,21 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C35" s="3" t="n">
-        <f aca="false">0.0000539 * 2</f>
-        <v>0.0001078</v>
+        <f aca="false"> 0.0000139 * 2</f>
+        <v>2.78E-005</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C36" s="3" t="n">
         <f aca="false">C29 * 2</f>
@@ -975,279 +1094,421 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:K52"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.57"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>65</v>
+      </c>
       <c r="K2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>66</v>
+      </c>
       <c r="K3" s="0" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K5" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>67</v>
+      </c>
       <c r="K6" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>68</v>
+      </c>
       <c r="K7" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>69</v>
+      </c>
       <c r="K8" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K9" s="0" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C11" s="4" t="n">
         <f aca="false">0.00203 * 0.006</f>
         <v>1.218E-005</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="3"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>9.3E-006</v>
+      </c>
       <c r="K12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="C14" s="5" t="n">
+        <v>9.33E-005</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="5" t="n">
         <v>5.33E-005</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>5.33E-005</v>
+        <v>2E-005</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>1E-005</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="C20" s="4" t="n">
         <f aca="false">0.00203 * 0.006</f>
         <v>1.218E-005</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="5" t="n">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>9.3E-006</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="5" t="n">
         <v>5.33E-005</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="5" t="n">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>1E-005</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="5" t="n">
         <v>5.33E-005</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="4" t="n">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="5" t="n">
+        <v>1E-005</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="4" t="n">
         <f aca="false">0.00203 * 0.006</f>
         <v>1.218E-005</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>57</v>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>9.3E-006</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="5" t="n">
+        <v>5.33E-005</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="C34" s="4" t="n">
+        <v>73</v>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>1E-005</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="4" t="n">
         <f aca="false">0.00203 * 0.006</f>
         <v>1.218E-005</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="3"/>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="C36" s="3"/>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="5" t="n">
+        <v>9.3E-006</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C38" s="3"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>60</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C39" s="3"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="C40" s="5" t="n">
         <v>5.33E-005</v>
       </c>
     </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>1E-005</v>
+      </c>
+    </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="C43" s="4" t="n">
+        <v>72</v>
+      </c>
+      <c r="C43" s="5" t="n">
+        <v>5.33E-005</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" s="5" t="n">
+        <v>1E-005</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46" s="4" t="n">
         <f aca="false">0.00203 * 0.006</f>
         <v>1.218E-005</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="C46" s="5" t="n">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" s="5" t="n">
+        <v>9.3E-006</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50" s="5" t="n">
         <v>5.33E-005</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="C49" s="4" t="n">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51" s="5" t="n">
+        <v>1E-005</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53" s="4" t="n">
         <f aca="false">0.00203 * 0.006</f>
         <v>1.218E-005</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="C52" s="4" t="n">
-        <v>2.73E-006</v>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" s="5" t="n">
+        <v>9.3E-006</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C56" s="5" t="n">
+        <v>5.33E-005</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C57" s="5" t="n">
+        <v>1E-005</v>
       </c>
     </row>
   </sheetData>

--- a/data/LCA Collection.xlsx
+++ b/data/LCA Collection.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Supply Chain Process" sheetId="1" state="visible" r:id="rId2"/>
@@ -381,13 +381,13 @@
     <t xml:space="preserve">Variant 1: </t>
   </si>
   <si>
-    <t xml:space="preserve">currogated box with kraft paper, lorry delivery and rerouting</t>
+    <t xml:space="preserve">carton board with kraft paper, lorry delivery and rerouting</t>
   </si>
   <si>
     <t xml:space="preserve">Variant 2: </t>
   </si>
   <si>
-    <t xml:space="preserve">currogated box with kraft paper, bike delivery and rerouting</t>
+    <t xml:space="preserve">carton board with kraft paper, bike delivery and rerouting</t>
   </si>
   <si>
     <t xml:space="preserve">Variant 3:</t>
@@ -842,11 +842,11 @@
   </sheetPr>
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.28"/>
@@ -1065,7 +1065,7 @@
         <v>62</v>
       </c>
       <c r="C35" s="3" t="n">
-        <f aca="false"> 0.0000139 * 2</f>
+        <f aca="false">0.0000139 * 2</f>
         <v>2.78E-005</v>
       </c>
     </row>
@@ -1096,11 +1096,11 @@
   </sheetPr>
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.04"/>
@@ -1211,7 +1211,7 @@
         <v>72</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>9.33E-005</v>
+        <v>0.000933</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
